--- a/config/default/forms/app/pregnancy_home_visit.xlsx
+++ b/config/default/forms/app/pregnancy_home_visit.xlsx
@@ -270,7 +270,7 @@
     <t xml:space="preserve">../lmp_date_8601 != ''</t>
   </si>
   <si>
-    <t xml:space="preserve">floor(decimal-date-time(today())) - decimal-date-time(../lmp_date_8601)</t>
+    <t xml:space="preserve">floor(decimal-date-time(today()) - decimal-date-time(../lmp_date_8601))</t>
   </si>
   <si>
     <t>weeks_since_lmp</t>
@@ -312,7 +312,7 @@
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
-    <t xml:space="preserve">date-time(floor(decimal-date-time(today())) + 3)</t>
+    <t xml:space="preserve">date-time(decimal-date-time(today()) + 3)</t>
   </si>
   <si>
     <t>t_danger_signs_referral_follow_up</t>
@@ -430,7 +430,7 @@
   </si>
   <si>
     <t xml:space="preserve">if(../lmp_date_8601_ctx = '', 'unknown',
-floor((floor(decimal-date-time(today())) - decimal-date-time(../lmp_date_8601_ctx)) div 7))</t>
+floor((decimal-date-time(today()) - decimal-date-time(../lmp_date_8601_ctx)) div 7))</t>
   </si>
   <si>
     <t xml:space="preserve">Weeks since LMP</t>
@@ -544,7 +544,7 @@
     <t xml:space="preserve">Date of miscarriage</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal-date-time(.) &lt;= floor(decimal-date-time(today())) and (${lmp_date_8601} = '' or decimal-date-time(.) &gt;= (decimal-date-time(${lmp_date_8601})))</t>
+    <t xml:space="preserve">. &lt;= today() and (${lmp_date_8601} = '' or . &gt;= ${lmp_date_8601})</t>
   </si>
   <si>
     <t xml:space="preserve">Date cannot be in the future. Date cannot be older than LMP.</t>
@@ -670,8 +670,8 @@
     <t xml:space="preserve">selected(../g_age_update_method, 'method_edd')</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= date-time(floor(decimal-date-time(today()))) and
-. &lt;= date-time(floor(decimal-date-time(today())) + (9 * 30))</t>
+    <t xml:space="preserve">. &gt;= today() and
+. &lt;= date-time(decimal-date-time(today()) + (9 * 30))</t>
   </si>
   <si>
     <t xml:space="preserve">Date cannot be in the past. Date cannot be more than 9 months in the future. </t>
@@ -744,7 +744,7 @@
   </si>
   <si>
     <t xml:space="preserve">format-date-time(
-if(selected(../update_method/g_age_update_method, 'method_weeks'), date-time(floor(decimal-date-time(today())) - (../update_method/lmp_weeks_new * 7)), 
+if(selected(../update_method/g_age_update_method, 'method_weeks'), date-time(decimal-date-time(today()) - (../update_method/lmp_weeks_new * 7)), 
 if(selected(../update_method/g_age_update_method, 'method_edd'), date-time(decimal-date-time(../update_method/u_edd_new) - 280), 0)
 ), "%Y-%m-%d")</t>
   </si>
@@ -844,7 +844,7 @@
     <t xml:space="preserve">selected(../visited_date_ask_single, 'yes')</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal-date-time(.) &lt;= floor(decimal-date-time(today())) and decimal-date-time(.) &gt;= (decimal-date-time(${lmp_date_8601}))</t>
+    <t xml:space="preserve">. &lt;= today() and . &gt;= ${lmp_date_8601}</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the correct date. Date must be within this pregnancy and cannot be in the future!</t>
@@ -1086,8 +1086,8 @@
     <t xml:space="preserve">selected(../appointment_date_known, 'yes')</t>
   </si>
   <si>
-    <t xml:space="preserve">(decimal-date-time(.) &gt;= floor(decimal-date-time(today()))) and
-(decimal-date-time(.) &lt;= floor(decimal-date-time(today() + 30)))</t>
+    <t xml:space="preserve">(. &gt;= today()) and
+(decimal-date-time(.) &lt;= decimal-date-time(today() + 30))</t>
   </si>
   <si>
     <t xml:space="preserve">Date cannot be in the past. Date cannot be more than one month from today.</t>
@@ -1723,14 +1723,14 @@
     <t>next_visit_weeks</t>
   </si>
   <si>
-    <t xml:space="preserve">round((if((decimal-date-time(${lmp_date_8601}) + 12*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 12*7,
-if((decimal-date-time(${lmp_date_8601}) + 20*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 20*7,
-if((decimal-date-time(${lmp_date_8601}) + 26*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 26*7,
-if((decimal-date-time(${lmp_date_8601}) + 30*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 30*7,
-if((decimal-date-time(${lmp_date_8601}) + 34*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 34*7,
-if((decimal-date-time(${lmp_date_8601}) + 36*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 36*7,
-if((decimal-date-time(${lmp_date_8601}) + 38*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 38*7,
-if((decimal-date-time(${lmp_date_8601}) + 40*7) &gt; floor(decimal-date-time(today())), decimal-date-time(${lmp_date_8601}) + 40*7, 0
+    <t xml:space="preserve">round((if((decimal-date-time(${lmp_date_8601}) + 12*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 12*7,
+if((decimal-date-time(${lmp_date_8601}) + 20*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 20*7,
+if((decimal-date-time(${lmp_date_8601}) + 26*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 26*7,
+if((decimal-date-time(${lmp_date_8601}) + 30*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 30*7,
+if((decimal-date-time(${lmp_date_8601}) + 34*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 34*7,
+if((decimal-date-time(${lmp_date_8601}) + 36*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 36*7,
+if((decimal-date-time(${lmp_date_8601}) + 38*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 38*7,
+if((decimal-date-time(${lmp_date_8601}) + 40*7) &gt; decimal-date-time(today()), decimal-date-time(${lmp_date_8601}) + 40*7, 0
 )))))))) - decimal-date-time(today())) div 7, 0)</t>
   </si>
   <si>
@@ -7189,7 +7189,7 @@
         <v>215</v>
       </c>
       <c r="L86" s="8"/>
-      <c r="M86" s="8" t="s">
+      <c r="M86" s="9" t="s">
         <v>216</v>
       </c>
       <c r="N86" s="8" t="s">
@@ -7825,7 +7825,7 @@
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
-      <c r="U100" s="8" t="s">
+      <c r="U100" s="9" t="s">
         <v>240</v>
       </c>
       <c r="V100" s="8"/>
@@ -9798,7 +9798,7 @@
         <v>349</v>
       </c>
       <c r="L143" s="8"/>
-      <c r="M143" s="8" t="s">
+      <c r="M143" s="9" t="s">
         <v>350</v>
       </c>
       <c r="N143" s="8" t="s">
@@ -14588,7 +14588,7 @@
       <c r="R249" s="11"/>
       <c r="S249" s="11"/>
       <c r="T249" s="11"/>
-      <c r="U249" s="11" t="s">
+      <c r="U249" s="12" t="s">
         <v>552</v>
       </c>
       <c r="V249" s="11"/>
@@ -17460,12 +17460,12 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{008E00A6-0055-4195-8482-001100640062}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006C0091-00CB-4027-AD2A-005B001F0007}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -18758,7 +18758,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -18834,7 +18834,7 @@
       </c>
       <c r="C2" s="31">
         <f ca="1">NOW()</f>
-        <v>44792.661527777775</v>
+        <v>44830.482766203706</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>770</v>
@@ -18869,7 +18869,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -21262,7 +21262,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>